--- a/InputScoreData.xlsx
+++ b/InputScoreData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UniversitySB\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>BẢNG ĐIỂM</t>
   </si>
@@ -41,18 +41,6 @@
     <t>Họ Tên</t>
   </si>
   <si>
-    <t>Ngô Minh Thành</t>
-  </si>
-  <si>
-    <t>Đoàn Gia Huy</t>
-  </si>
-  <si>
-    <t>Lê Quang Tới</t>
-  </si>
-  <si>
-    <t>Cao Nguyên Thụy</t>
-  </si>
-  <si>
     <t>Ngày sinh</t>
   </si>
   <si>
@@ -65,25 +53,19 @@
     <t>Cuối kì</t>
   </si>
   <si>
-    <t>Đảng Cộng Sản Việt Nam</t>
-  </si>
-  <si>
     <t>12024</t>
   </si>
   <si>
     <t>Ghi chú</t>
   </si>
   <si>
-    <t>2051052127</t>
-  </si>
-  <si>
-    <t>2051052054</t>
-  </si>
-  <si>
-    <t>2051052001</t>
-  </si>
-  <si>
-    <t>2051052000</t>
+    <t>2051052087</t>
+  </si>
+  <si>
+    <t>Thiết kế web</t>
+  </si>
+  <si>
+    <t>Đặng Văn Mãi</t>
   </si>
 </sst>
 </file>
@@ -457,7 +439,7 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -490,13 +472,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E2" s="11"/>
       <c r="F2" s="12"/>
@@ -509,30 +491,30 @@
         <v>4</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C4" s="6">
-        <v>37269</v>
+        <v>37526</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="10"/>
@@ -544,61 +526,31 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="6">
-        <v>37259</v>
-      </c>
+      <c r="A5" s="4"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="6"/>
       <c r="D5" s="4"/>
       <c r="E5" s="10"/>
-      <c r="F5" s="10">
-        <v>9</v>
-      </c>
-      <c r="G5" s="10">
-        <v>8</v>
-      </c>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="6">
-        <v>45196</v>
-      </c>
+      <c r="A6" s="4"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="6"/>
       <c r="D6" s="4"/>
       <c r="E6" s="10"/>
-      <c r="F6" s="10">
-        <v>5</v>
-      </c>
-      <c r="G6" s="10">
-        <v>8</v>
-      </c>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="6">
-        <v>45208</v>
-      </c>
+      <c r="A7" s="4"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="6"/>
       <c r="D7" s="4"/>
       <c r="E7" s="10"/>
-      <c r="F7" s="10">
-        <v>7</v>
-      </c>
-      <c r="G7" s="10">
-        <v>7</v>
-      </c>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/InputScoreData.xlsx
+++ b/InputScoreData.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>BẢNG ĐIỂM</t>
   </si>
@@ -59,13 +59,19 @@
     <t>Ghi chú</t>
   </si>
   <si>
-    <t>2051052087</t>
-  </si>
-  <si>
     <t>Thiết kế web</t>
   </si>
   <si>
-    <t>Đặng Văn Mãi</t>
+    <t>Trịnh Quốc Thảo</t>
+  </si>
+  <si>
+    <t>2051052088</t>
+  </si>
+  <si>
+    <t>Lớp:</t>
+  </si>
+  <si>
+    <t>DH20IT02</t>
   </si>
 </sst>
 </file>
@@ -439,7 +445,7 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -472,7 +478,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>2</v>
@@ -480,8 +486,12 @@
       <c r="D2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="11"/>
-      <c r="F2" s="12"/>
+      <c r="E2" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
@@ -508,10 +518,10 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" s="6">
         <v>37526</v>
@@ -519,10 +529,10 @@
       <c r="D4" s="4"/>
       <c r="E4" s="10"/>
       <c r="F4" s="10">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G4" s="10">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">

--- a/InputScoreData.xlsx
+++ b/InputScoreData.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>BẢNG ĐIỂM</t>
   </si>
@@ -72,6 +72,60 @@
   </si>
   <si>
     <t>DH20IT02</t>
+  </si>
+  <si>
+    <t>2051052087</t>
+  </si>
+  <si>
+    <t>Đặng Văn Mãi</t>
+  </si>
+  <si>
+    <t>2051052089</t>
+  </si>
+  <si>
+    <t>2051052090</t>
+  </si>
+  <si>
+    <t>2051052091</t>
+  </si>
+  <si>
+    <t>2051052092</t>
+  </si>
+  <si>
+    <t>2051052093</t>
+  </si>
+  <si>
+    <t>2051052094</t>
+  </si>
+  <si>
+    <t>2051052095</t>
+  </si>
+  <si>
+    <t>2051052096</t>
+  </si>
+  <si>
+    <t>Đặng Phạm Đình Chương</t>
+  </si>
+  <si>
+    <t>Phan Lê Hồ</t>
+  </si>
+  <si>
+    <t>Đậu Xuân Hoàng Hùng</t>
+  </si>
+  <si>
+    <t>Bùi Tiến Phát</t>
+  </si>
+  <si>
+    <t>Nguyễn Kim Bảo Ngân</t>
+  </si>
+  <si>
+    <t>Lê Hồng Phúc</t>
+  </si>
+  <si>
+    <t>Lê Quang Tới</t>
+  </si>
+  <si>
+    <t>Phan Nhựt Tân</t>
   </si>
 </sst>
 </file>
@@ -95,7 +149,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -136,11 +190,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -162,6 +227,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -442,10 +509,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -518,10 +585,10 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C4" s="6">
         <v>37526</v>
@@ -536,31 +603,166 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="6"/>
+      <c r="A5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="6">
+        <v>37527</v>
+      </c>
       <c r="D5" s="4"/>
       <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
+      <c r="F5" s="10">
+        <v>5</v>
+      </c>
+      <c r="G5" s="10">
+        <v>6</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="6"/>
+      <c r="A6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="6">
+        <v>37528</v>
+      </c>
       <c r="D6" s="4"/>
       <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
+      <c r="F6" s="10">
+        <v>3</v>
+      </c>
+      <c r="G6" s="10">
+        <v>3</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="6"/>
+      <c r="A7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="6">
+        <v>37529</v>
+      </c>
       <c r="D7" s="4"/>
       <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
+      <c r="F7" s="10">
+        <v>5</v>
+      </c>
+      <c r="G7" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="6">
+        <v>37530</v>
+      </c>
+      <c r="F8" s="9">
+        <v>8</v>
+      </c>
+      <c r="G8" s="16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="6">
+        <v>37531</v>
+      </c>
+      <c r="F9" s="9">
+        <v>9</v>
+      </c>
+      <c r="G9" s="16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="6">
+        <v>37532</v>
+      </c>
+      <c r="F10" s="9">
+        <v>9</v>
+      </c>
+      <c r="G10" s="16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="6">
+        <v>37533</v>
+      </c>
+      <c r="F11" s="9">
+        <v>8</v>
+      </c>
+      <c r="G11" s="16">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="6">
+        <v>37534</v>
+      </c>
+      <c r="F12" s="9">
+        <v>7</v>
+      </c>
+      <c r="G12" s="16">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="6">
+        <v>37535</v>
+      </c>
+      <c r="F13" s="9">
+        <v>6</v>
+      </c>
+      <c r="G13" s="16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
